--- a/LOGS/712a6d97-dc33-4cb8-b5ca-e56dae5dd169/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/712a6d97-dc33-4cb8-b5ca-e56dae5dd169/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -7,7 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="3_8_5e8c1c01-326a-33" sheetId="1" r:id="rId1"/>
+    <sheet name="3_12_12a833d7-6726-3" sheetId="2" r:id="rId2"/>
+    <sheet name="3_18_9e7b0854-d3da-3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -348,4 +350,28 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>